--- a/Team-Data/2014-15/3-27-2014-15.xlsx
+++ b/Team-Data/2014-15/3-27-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" t="n">
         <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>0.764</v>
+        <v>0.761</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -684,31 +751,31 @@
         <v>37.8</v>
       </c>
       <c r="J2" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K2" t="n">
         <v>0.465</v>
       </c>
       <c r="L2" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="M2" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="N2" t="n">
-        <v>0.384</v>
+        <v>0.385</v>
       </c>
       <c r="O2" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P2" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q2" t="n">
         <v>0.779</v>
       </c>
       <c r="R2" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S2" t="n">
         <v>31.9</v>
@@ -738,13 +805,13 @@
         <v>20.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -759,7 +826,7 @@
         <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
         <v>27</v>
@@ -768,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="AL2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM2" t="n">
         <v>7</v>
@@ -783,13 +850,13 @@
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR2" t="n">
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -804,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY2" t="n">
         <v>17</v>
@@ -816,7 +883,7 @@
         <v>17</v>
       </c>
       <c r="BB2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC2" t="n">
         <v>3</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -848,49 +915,49 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="n">
         <v>40</v>
       </c>
       <c r="G3" t="n">
-        <v>0.444</v>
+        <v>0.437</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J3" t="n">
-        <v>87.90000000000001</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="K3" t="n">
         <v>0.44</v>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M3" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.328</v>
+        <v>0.329</v>
       </c>
       <c r="O3" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="P3" t="n">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.748</v>
+        <v>0.746</v>
       </c>
       <c r="R3" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S3" t="n">
         <v>32.9</v>
@@ -899,7 +966,7 @@
         <v>44.1</v>
       </c>
       <c r="U3" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="V3" t="n">
         <v>14</v>
@@ -908,25 +975,25 @@
         <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z3" t="n">
         <v>21.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="AC3" t="n">
         <v>-0.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
         <v>18</v>
@@ -938,16 +1005,16 @@
         <v>18</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ3" t="n">
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
         <v>13</v>
@@ -971,13 +1038,13 @@
         <v>11</v>
       </c>
       <c r="AS3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV3" t="n">
         <v>13</v>
@@ -986,16 +1053,16 @@
         <v>11</v>
       </c>
       <c r="AX3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA3" t="n">
         <v>29</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>28</v>
       </c>
       <c r="BB3" t="n">
         <v>14</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="n">
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>0.437</v>
+        <v>0.429</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
@@ -1048,34 +1115,34 @@
         <v>37.1</v>
       </c>
       <c r="J4" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K4" t="n">
         <v>0.449</v>
       </c>
       <c r="L4" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.324</v>
+        <v>0.323</v>
       </c>
       <c r="O4" t="n">
         <v>16.6</v>
       </c>
       <c r="P4" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.748</v>
+        <v>0.747</v>
       </c>
       <c r="R4" t="n">
         <v>10.2</v>
       </c>
       <c r="S4" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T4" t="n">
         <v>42.3</v>
@@ -1087,13 +1154,13 @@
         <v>14.2</v>
       </c>
       <c r="W4" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
         <v>4.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z4" t="n">
         <v>19.7</v>
@@ -1102,22 +1169,22 @@
         <v>20.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.3</v>
+        <v>-3.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
         <v>2</v>
@@ -1126,13 +1193,13 @@
         <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>16</v>
       </c>
       <c r="AL4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM4" t="n">
         <v>20</v>
@@ -1141,7 +1208,7 @@
         <v>27</v>
       </c>
       <c r="AO4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP4" t="n">
         <v>17</v>
@@ -1153,16 +1220,16 @@
         <v>24</v>
       </c>
       <c r="AS4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
@@ -1177,7 +1244,7 @@
         <v>13</v>
       </c>
       <c r="BA4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -1212,43 +1279,43 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" t="n">
         <v>30</v>
       </c>
       <c r="F5" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>0.423</v>
+        <v>0.429</v>
       </c>
       <c r="H5" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I5" t="n">
         <v>35.8</v>
       </c>
       <c r="J5" t="n">
-        <v>84.8</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.422</v>
+        <v>0.423</v>
       </c>
       <c r="L5" t="n">
         <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N5" t="n">
         <v>0.315</v>
       </c>
       <c r="O5" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P5" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="Q5" t="n">
         <v>0.746</v>
@@ -1257,22 +1324,22 @@
         <v>10</v>
       </c>
       <c r="S5" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="T5" t="n">
-        <v>44.4</v>
+        <v>44.2</v>
       </c>
       <c r="U5" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V5" t="n">
         <v>11.9</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y5" t="n">
         <v>5.3</v>
@@ -1281,28 +1348,28 @@
         <v>18.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC5" t="n">
         <v>-2.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>26</v>
@@ -1326,16 +1393,16 @@
         <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR5" t="n">
         <v>25</v>
       </c>
       <c r="AS5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT5" t="n">
         <v>9</v>
@@ -1347,13 +1414,13 @@
         <v>1</v>
       </c>
       <c r="AW5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX5" t="n">
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ5" t="n">
         <v>5</v>
@@ -1362,7 +1429,7 @@
         <v>7</v>
       </c>
       <c r="BB5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BC5" t="n">
         <v>22</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>2.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
@@ -1496,7 +1563,7 @@
         <v>20</v>
       </c>
       <c r="AL6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM6" t="n">
         <v>16</v>
@@ -1523,25 +1590,25 @@
         <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX6" t="n">
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
       </c>
       <c r="BA6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" t="n">
         <v>47</v>
       </c>
       <c r="F7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>0.635</v>
+        <v>0.644</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
@@ -1597,7 +1664,7 @@
         <v>82.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L7" t="n">
         <v>9.9</v>
@@ -1606,19 +1673,19 @@
         <v>27.1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.364</v>
+        <v>0.365</v>
       </c>
       <c r="O7" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P7" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R7" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S7" t="n">
         <v>31.8</v>
@@ -1630,7 +1697,7 @@
         <v>22</v>
       </c>
       <c r="V7" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W7" t="n">
         <v>7.4</v>
@@ -1639,7 +1706,7 @@
         <v>4.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z7" t="n">
         <v>18.5</v>
@@ -1651,31 +1718,31 @@
         <v>103.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
       </c>
       <c r="AE7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG7" t="n">
         <v>6</v>
       </c>
-      <c r="AF7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>7</v>
-      </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>13</v>
       </c>
       <c r="AJ7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1696,16 +1763,16 @@
         <v>16</v>
       </c>
       <c r="AR7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT7" t="n">
         <v>19</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>12</v>
@@ -1729,7 +1796,7 @@
         <v>6</v>
       </c>
       <c r="BC7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -1773,13 +1840,13 @@
         <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="J8" t="n">
         <v>85.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.459</v>
+        <v>0.461</v>
       </c>
       <c r="L8" t="n">
         <v>9.199999999999999</v>
@@ -1788,31 +1855,31 @@
         <v>26.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O8" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P8" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.752</v>
+        <v>0.754</v>
       </c>
       <c r="R8" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
         <v>22.4</v>
       </c>
       <c r="V8" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W8" t="n">
         <v>8.300000000000001</v>
@@ -1821,7 +1888,7 @@
         <v>4.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z8" t="n">
         <v>19.8</v>
@@ -1830,19 +1897,19 @@
         <v>21.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.3</v>
+        <v>104.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
         <v>9</v>
@@ -1851,13 +1918,13 @@
         <v>14</v>
       </c>
       <c r="AI8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ8" t="n">
         <v>9</v>
       </c>
       <c r="AK8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL8" t="n">
         <v>7</v>
@@ -1866,7 +1933,7 @@
         <v>6</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
         <v>21</v>
@@ -1878,13 +1945,13 @@
         <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1893,10 +1960,10 @@
         <v>4</v>
       </c>
       <c r="AW8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" t="n">
         <v>45</v>
       </c>
       <c r="G9" t="n">
-        <v>0.384</v>
+        <v>0.375</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
@@ -1958,28 +2025,28 @@
         <v>37.3</v>
       </c>
       <c r="J9" t="n">
-        <v>86.59999999999999</v>
+        <v>86.7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="L9" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M9" t="n">
         <v>24.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.323</v>
+        <v>0.32</v>
       </c>
       <c r="O9" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P9" t="n">
         <v>24.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.728</v>
+        <v>0.729</v>
       </c>
       <c r="R9" t="n">
         <v>12.1</v>
@@ -1988,7 +2055,7 @@
         <v>32.6</v>
       </c>
       <c r="T9" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U9" t="n">
         <v>21.6</v>
@@ -2012,13 +2079,13 @@
         <v>20.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.3</v>
+        <v>-3.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2030,7 +2097,7 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
         <v>18</v>
@@ -2042,19 +2109,19 @@
         <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM9" t="n">
         <v>12</v>
       </c>
       <c r="AN9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
         <v>25</v>
@@ -2072,13 +2139,13 @@
         <v>16</v>
       </c>
       <c r="AV9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW9" t="n">
         <v>15</v>
       </c>
       <c r="AX9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -2122,34 +2189,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="n">
         <v>44</v>
       </c>
       <c r="G10" t="n">
-        <v>0.389</v>
+        <v>0.38</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J10" t="n">
-        <v>86.40000000000001</v>
+        <v>86.3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.427</v>
+        <v>0.426</v>
       </c>
       <c r="L10" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="N10" t="n">
         <v>0.337</v>
@@ -2158,25 +2225,25 @@
         <v>16.1</v>
       </c>
       <c r="P10" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q10" t="n">
         <v>0.707</v>
       </c>
       <c r="R10" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S10" t="n">
         <v>32.3</v>
       </c>
       <c r="T10" t="n">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="U10" t="n">
         <v>21.3</v>
       </c>
       <c r="V10" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W10" t="n">
         <v>7.6</v>
@@ -2185,22 +2252,22 @@
         <v>4.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.3</v>
+        <v>-1.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,7 +2279,7 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
@@ -2230,10 +2297,10 @@
         <v>10</v>
       </c>
       <c r="AN10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP10" t="n">
         <v>16</v>
@@ -2254,7 +2321,7 @@
         <v>18</v>
       </c>
       <c r="AV10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW10" t="n">
         <v>16</v>
@@ -2266,7 +2333,7 @@
         <v>18</v>
       </c>
       <c r="AZ10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" t="n">
         <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.819</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
@@ -2322,34 +2389,34 @@
         <v>41.5</v>
       </c>
       <c r="J11" t="n">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="K11" t="n">
-        <v>0.478</v>
+        <v>0.479</v>
       </c>
       <c r="L11" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="M11" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="N11" t="n">
-        <v>0.396</v>
+        <v>0.394</v>
       </c>
       <c r="O11" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P11" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="Q11" t="n">
         <v>0.773</v>
       </c>
       <c r="R11" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S11" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="T11" t="n">
         <v>44.6</v>
@@ -2361,7 +2428,7 @@
         <v>14.5</v>
       </c>
       <c r="W11" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="X11" t="n">
         <v>6.1</v>
@@ -2379,10 +2446,10 @@
         <v>109.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2427,7 +2494,7 @@
         <v>23</v>
       </c>
       <c r="AS11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT11" t="n">
         <v>6</v>
@@ -2439,7 +2506,7 @@
         <v>19</v>
       </c>
       <c r="AW11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX11" t="n">
         <v>2</v>
@@ -2451,7 +2518,7 @@
         <v>12</v>
       </c>
       <c r="BA11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -2501,43 +2568,43 @@
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J12" t="n">
-        <v>84</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="L12" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="M12" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="O12" t="n">
-        <v>17.7</v>
+        <v>18</v>
       </c>
       <c r="P12" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.727</v>
+        <v>0.726</v>
       </c>
       <c r="R12" t="n">
         <v>11.7</v>
       </c>
       <c r="S12" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T12" t="n">
         <v>43.5</v>
       </c>
       <c r="U12" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V12" t="n">
         <v>16.8</v>
@@ -2546,7 +2613,7 @@
         <v>9.5</v>
       </c>
       <c r="X12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y12" t="n">
         <v>5.4</v>
@@ -2555,22 +2622,22 @@
         <v>22.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.4</v>
+        <v>103.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
       </c>
       <c r="AF12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG12" t="n">
         <v>4</v>
@@ -2582,10 +2649,10 @@
         <v>20</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AQ12" t="n">
         <v>26</v>
@@ -2609,22 +2676,22 @@
         <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
       </c>
       <c r="AV12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AY12" t="n">
         <v>25</v>
@@ -2633,10 +2700,10 @@
         <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -2746,19 +2813,19 @@
         <v>-0.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
         <v>20</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2767,31 +2834,31 @@
         <v>16</v>
       </c>
       <c r="AK13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL13" t="n">
         <v>18</v>
       </c>
       <c r="AM13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO13" t="n">
         <v>18</v>
       </c>
-      <c r="AN13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>17</v>
-      </c>
       <c r="AP13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
         <v>21</v>
       </c>
       <c r="AS13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT13" t="n">
         <v>7</v>
@@ -2812,16 +2879,16 @@
         <v>16</v>
       </c>
       <c r="AZ13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB13" t="n">
         <v>24</v>
       </c>
       <c r="BC13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" t="n">
         <v>25</v>
       </c>
       <c r="G14" t="n">
-        <v>0.658</v>
+        <v>0.653</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2871,7 +2938,7 @@
         <v>83.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L14" t="n">
         <v>10</v>
@@ -2880,40 +2947,40 @@
         <v>26.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.375</v>
+        <v>0.374</v>
       </c>
       <c r="O14" t="n">
         <v>17.5</v>
       </c>
       <c r="P14" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.71</v>
+        <v>0.712</v>
       </c>
       <c r="R14" t="n">
         <v>9.5</v>
       </c>
       <c r="S14" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="T14" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="U14" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="V14" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="W14" t="n">
         <v>7.8</v>
       </c>
       <c r="X14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Z14" t="n">
         <v>21.3</v>
@@ -2922,16 +2989,16 @@
         <v>21.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.4</v>
+        <v>106.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
@@ -2943,7 +3010,7 @@
         <v>29</v>
       </c>
       <c r="AI14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ14" t="n">
         <v>15</v>
@@ -2952,7 +3019,7 @@
         <v>2</v>
       </c>
       <c r="AL14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM14" t="n">
         <v>5</v>
@@ -2961,10 +3028,10 @@
         <v>3</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ14" t="n">
         <v>28</v>
@@ -2973,10 +3040,10 @@
         <v>28</v>
       </c>
       <c r="AS14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -2985,16 +3052,16 @@
         <v>2</v>
       </c>
       <c r="AW14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -3050,7 +3117,7 @@
         <v>37.5</v>
       </c>
       <c r="J15" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K15" t="n">
         <v>0.436</v>
@@ -3059,28 +3126,28 @@
         <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.342</v>
+        <v>0.343</v>
       </c>
       <c r="O15" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P15" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.744</v>
+        <v>0.746</v>
       </c>
       <c r="R15" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S15" t="n">
         <v>32.5</v>
       </c>
       <c r="T15" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="U15" t="n">
         <v>20.9</v>
@@ -3092,25 +3159,25 @@
         <v>7.3</v>
       </c>
       <c r="X15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y15" t="n">
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.7</v>
+        <v>-5.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,7 +3192,7 @@
         <v>4</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>7</v>
@@ -3134,7 +3201,7 @@
         <v>25</v>
       </c>
       <c r="AL15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM15" t="n">
         <v>24</v>
@@ -3143,16 +3210,16 @@
         <v>19</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP15" t="n">
         <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS15" t="n">
         <v>13</v>
@@ -3170,13 +3237,13 @@
         <v>20</v>
       </c>
       <c r="AX15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY15" t="n">
         <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
         <v>23</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" t="n">
         <v>50</v>
       </c>
       <c r="F16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.694</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
@@ -3232,7 +3299,7 @@
         <v>37.8</v>
       </c>
       <c r="J16" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K16" t="n">
         <v>0.458</v>
@@ -3244,13 +3311,13 @@
         <v>15.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O16" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P16" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q16" t="n">
         <v>0.775</v>
@@ -3268,13 +3335,13 @@
         <v>21.7</v>
       </c>
       <c r="V16" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W16" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y16" t="n">
         <v>5.3</v>
@@ -3286,13 +3353,13 @@
         <v>20.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3304,13 +3371,13 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK16" t="n">
         <v>8</v>
@@ -3322,19 +3389,19 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ16" t="n">
         <v>7</v>
       </c>
       <c r="AR16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AS16" t="n">
         <v>16</v>
@@ -3343,13 +3410,13 @@
         <v>20</v>
       </c>
       <c r="AU16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW16" t="n">
         <v>7</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>6</v>
       </c>
       <c r="AX16" t="n">
         <v>24</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" t="n">
         <v>33</v>
       </c>
       <c r="F17" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" t="n">
-        <v>0.458</v>
+        <v>0.465</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
@@ -3414,46 +3481,46 @@
         <v>35</v>
       </c>
       <c r="J17" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M17" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="N17" t="n">
         <v>0.341</v>
       </c>
       <c r="O17" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P17" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="Q17" t="n">
         <v>0.741</v>
       </c>
       <c r="R17" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S17" t="n">
         <v>29.9</v>
       </c>
       <c r="T17" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="U17" t="n">
         <v>20.1</v>
       </c>
       <c r="V17" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X17" t="n">
         <v>4.4</v>
@@ -3465,16 +3532,16 @@
         <v>19.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.2</v>
+        <v>-2</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL17" t="n">
         <v>20</v>
@@ -3504,7 +3571,7 @@
         <v>19</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO17" t="n">
         <v>10</v>
@@ -3546,7 +3613,7 @@
         <v>8</v>
       </c>
       <c r="BB17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC17" t="n">
         <v>21</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>0.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3677,7 +3744,7 @@
         <v>26</v>
       </c>
       <c r="AK18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL18" t="n">
         <v>23</v>
@@ -3695,28 +3762,28 @@
         <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS18" t="n">
         <v>24</v>
       </c>
       <c r="AT18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
       </c>
       <c r="AV18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW18" t="n">
         <v>4</v>
       </c>
       <c r="AX18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY18" t="n">
         <v>13</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" t="n">
-        <v>0.222</v>
+        <v>0.225</v>
       </c>
       <c r="H19" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I19" t="n">
         <v>36.7</v>
       </c>
       <c r="J19" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L19" t="n">
         <v>5</v>
@@ -3790,28 +3857,28 @@
         <v>14.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.336</v>
+        <v>0.335</v>
       </c>
       <c r="O19" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="P19" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.772</v>
+        <v>0.77</v>
       </c>
       <c r="R19" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S19" t="n">
         <v>29.6</v>
       </c>
       <c r="T19" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U19" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V19" t="n">
         <v>15.1</v>
@@ -3826,19 +3893,19 @@
         <v>5.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA19" t="n">
         <v>21.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC19" t="n">
         <v>-7.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3850,16 +3917,16 @@
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
         <v>22</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3868,10 +3935,10 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP19" t="n">
         <v>2</v>
@@ -3889,13 +3956,13 @@
         <v>25</v>
       </c>
       <c r="AU19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV19" t="n">
         <v>24</v>
       </c>
       <c r="AW19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX19" t="n">
         <v>27</v>
@@ -3904,10 +3971,10 @@
         <v>27</v>
       </c>
       <c r="AZ19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -3957,70 +4024,70 @@
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J20" t="n">
-        <v>82.59999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.367</v>
+        <v>0.364</v>
       </c>
       <c r="O20" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="P20" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.764</v>
+        <v>0.76</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
         <v>32.1</v>
       </c>
       <c r="T20" t="n">
-        <v>43.5</v>
+        <v>43.7</v>
       </c>
       <c r="U20" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V20" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W20" t="n">
         <v>6.7</v>
       </c>
       <c r="X20" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
         <v>99.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
@@ -4029,7 +4096,7 @@
         <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
@@ -4038,10 +4105,10 @@
         <v>14</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
         <v>19</v>
@@ -4050,28 +4117,28 @@
         <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP20" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
         <v>10</v>
       </c>
       <c r="AS20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AU20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV20" t="n">
         <v>8</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4089,7 +4156,7 @@
         <v>6</v>
       </c>
       <c r="BA20" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" t="n">
         <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" t="n">
-        <v>0.192</v>
+        <v>0.194</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
@@ -4154,16 +4221,16 @@
         <v>19.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O21" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="P21" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R21" t="n">
         <v>10.7</v>
@@ -4172,7 +4239,7 @@
         <v>29.7</v>
       </c>
       <c r="T21" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U21" t="n">
         <v>21.3</v>
@@ -4190,7 +4257,7 @@
         <v>4.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="AA21" t="n">
         <v>19</v>
@@ -4199,10 +4266,10 @@
         <v>91.90000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-9.4</v>
+        <v>-9.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4214,10 +4281,10 @@
         <v>30</v>
       </c>
       <c r="AH21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ21" t="n">
         <v>22</v>
@@ -4226,7 +4293,7 @@
         <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR21" t="n">
         <v>17</v>
@@ -4262,13 +4329,13 @@
         <v>23</v>
       </c>
       <c r="AX21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>2.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>12</v>
@@ -4414,7 +4481,7 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4438,7 +4505,7 @@
         <v>21</v>
       </c>
       <c r="AV22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW22" t="n">
         <v>21</v>
@@ -4456,7 +4523,7 @@
         <v>19</v>
       </c>
       <c r="BB22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC22" t="n">
         <v>11</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -4503,43 +4570,43 @@
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J23" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
         <v>6.8</v>
       </c>
       <c r="M23" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="O23" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="P23" t="n">
         <v>19.5</v>
       </c>
-      <c r="N23" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O23" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>19.3</v>
-      </c>
       <c r="Q23" t="n">
-        <v>0.73</v>
+        <v>0.729</v>
       </c>
       <c r="R23" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T23" t="n">
-        <v>41.1</v>
+        <v>41.4</v>
       </c>
       <c r="U23" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="V23" t="n">
         <v>14.9</v>
@@ -4548,10 +4615,10 @@
         <v>7.8</v>
       </c>
       <c r="X23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
         <v>21.1</v>
@@ -4560,13 +4627,13 @@
         <v>18.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6</v>
+        <v>-6.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4581,13 +4648,13 @@
         <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
         <v>21</v>
@@ -4611,25 +4678,25 @@
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT23" t="n">
         <v>27</v>
       </c>
       <c r="AU23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AZ23" t="n">
         <v>19</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" t="n">
         <v>18</v>
       </c>
       <c r="F24" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24" t="n">
-        <v>0.247</v>
+        <v>0.25</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4697,10 +4764,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M24" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="N24" t="n">
-        <v>0.323</v>
+        <v>0.322</v>
       </c>
       <c r="O24" t="n">
         <v>15.9</v>
@@ -4709,16 +4776,16 @@
         <v>23.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.672</v>
+        <v>0.674</v>
       </c>
       <c r="R24" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S24" t="n">
         <v>31.4</v>
       </c>
       <c r="T24" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U24" t="n">
         <v>20.6</v>
@@ -4733,22 +4800,22 @@
         <v>6.2</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA24" t="n">
         <v>20.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>91.40000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>-9</v>
+        <v>-8.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4772,16 +4839,16 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM24" t="n">
         <v>8</v>
       </c>
       <c r="AN24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP24" t="n">
         <v>11</v>
@@ -4790,7 +4857,7 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4799,7 +4866,7 @@
         <v>18</v>
       </c>
       <c r="AU24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4817,7 +4884,7 @@
         <v>24</v>
       </c>
       <c r="BA24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -4852,58 +4919,58 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" t="n">
         <v>38</v>
       </c>
       <c r="F25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" t="n">
-        <v>0.521</v>
+        <v>0.528</v>
       </c>
       <c r="H25" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="J25" t="n">
         <v>86.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.454</v>
+        <v>0.456</v>
       </c>
       <c r="L25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="M25" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O25" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P25" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R25" t="n">
         <v>11.2</v>
       </c>
       <c r="S25" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T25" t="n">
         <v>43.6</v>
       </c>
       <c r="U25" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V25" t="n">
         <v>15.3</v>
@@ -4918,31 +4985,31 @@
         <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA25" t="n">
         <v>20.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>103.8</v>
+        <v>104.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI25" t="n">
         <v>4</v>
@@ -4951,7 +5018,7 @@
         <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL25" t="n">
         <v>8</v>
@@ -4963,13 +5030,13 @@
         <v>14</v>
       </c>
       <c r="AO25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
         <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR25" t="n">
         <v>12</v>
@@ -4987,25 +5054,25 @@
         <v>26</v>
       </c>
       <c r="AW25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB25" t="n">
         <v>5</v>
       </c>
       <c r="BC25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F26" t="n">
         <v>25</v>
       </c>
       <c r="G26" t="n">
-        <v>0.648</v>
+        <v>0.643</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J26" t="n">
         <v>85.7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L26" t="n">
         <v>10</v>
@@ -5064,31 +5131,31 @@
         <v>27.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O26" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="P26" t="n">
         <v>19.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.796</v>
+        <v>0.801</v>
       </c>
       <c r="R26" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S26" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="T26" t="n">
-        <v>45.9</v>
+        <v>45.8</v>
       </c>
       <c r="U26" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V26" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W26" t="n">
         <v>6.5</v>
@@ -5106,13 +5173,13 @@
         <v>19.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.3</v>
+        <v>102.5</v>
       </c>
       <c r="AC26" t="n">
         <v>4.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5121,10 +5188,10 @@
         <v>5</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
         <v>8</v>
@@ -5136,7 +5203,7 @@
         <v>19</v>
       </c>
       <c r="AL26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM26" t="n">
         <v>2</v>
@@ -5145,7 +5212,7 @@
         <v>8</v>
       </c>
       <c r="AO26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP26" t="n">
         <v>28</v>
@@ -5154,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -5184,7 +5251,7 @@
         <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -5216,22 +5283,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" t="n">
         <v>26</v>
       </c>
       <c r="F27" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" t="n">
-        <v>0.361</v>
+        <v>0.366</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J27" t="n">
         <v>80.8</v>
@@ -5246,31 +5313,31 @@
         <v>16.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.338</v>
+        <v>0.336</v>
       </c>
       <c r="O27" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="P27" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.778</v>
+        <v>0.78</v>
       </c>
       <c r="R27" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S27" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="T27" t="n">
-        <v>44.4</v>
+        <v>44.5</v>
       </c>
       <c r="U27" t="n">
         <v>20</v>
       </c>
       <c r="V27" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="W27" t="n">
         <v>6.6</v>
@@ -5279,34 +5346,34 @@
         <v>3.9</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.1</v>
+        <v>101.3</v>
       </c>
       <c r="AC27" t="n">
-        <v>-3.8</v>
+        <v>-3.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5333,10 +5400,10 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS27" t="n">
         <v>9</v>
@@ -5360,7 +5427,7 @@
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -5416,19 +5483,19 @@
         <v>38.7</v>
       </c>
       <c r="J28" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
         <v>22.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.364</v>
+        <v>0.366</v>
       </c>
       <c r="O28" t="n">
         <v>17</v>
@@ -5440,22 +5507,22 @@
         <v>0.776</v>
       </c>
       <c r="R28" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T28" t="n">
-        <v>43.7</v>
+        <v>43.5</v>
       </c>
       <c r="U28" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="V28" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W28" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X28" t="n">
         <v>5.5</v>
@@ -5470,16 +5537,16 @@
         <v>19.9</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AD28" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF28" t="n">
         <v>7</v>
@@ -5491,22 +5558,22 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK28" t="n">
         <v>5</v>
       </c>
       <c r="AL28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM28" t="n">
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
         <v>14</v>
@@ -5521,16 +5588,16 @@
         <v>26</v>
       </c>
       <c r="AS28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AU28" t="n">
         <v>4</v>
       </c>
       <c r="AV28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW28" t="n">
         <v>12</v>
@@ -5542,7 +5609,7 @@
         <v>9</v>
       </c>
       <c r="AZ28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA28" t="n">
         <v>20</v>
@@ -5551,7 +5618,7 @@
         <v>9</v>
       </c>
       <c r="BC28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F29" t="n">
         <v>30</v>
       </c>
       <c r="G29" t="n">
-        <v>0.589</v>
+        <v>0.583</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J29" t="n">
-        <v>83.5</v>
+        <v>83.7</v>
       </c>
       <c r="K29" t="n">
         <v>0.454</v>
@@ -5607,25 +5674,25 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="N29" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O29" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="P29" t="n">
         <v>24.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.789</v>
+        <v>0.79</v>
       </c>
       <c r="R29" t="n">
         <v>10.8</v>
       </c>
       <c r="S29" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T29" t="n">
         <v>41.4</v>
@@ -5643,7 +5710,7 @@
         <v>4.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z29" t="n">
         <v>20.9</v>
@@ -5652,13 +5719,13 @@
         <v>20.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5670,7 +5737,7 @@
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AI29" t="n">
         <v>10</v>
@@ -5688,10 +5755,10 @@
         <v>11</v>
       </c>
       <c r="AN29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP29" t="n">
         <v>4</v>
@@ -5700,7 +5767,7 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
@@ -5724,10 +5791,10 @@
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB29" t="n">
         <v>4</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" t="n">
         <v>31</v>
       </c>
       <c r="F30" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>0.431</v>
+        <v>0.437</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5783,22 +5850,22 @@
         <v>78.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L30" t="n">
         <v>7.3</v>
       </c>
       <c r="M30" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O30" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P30" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q30" t="n">
         <v>0.722</v>
@@ -5807,7 +5874,7 @@
         <v>11.9</v>
       </c>
       <c r="S30" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T30" t="n">
         <v>43.7</v>
@@ -5816,7 +5883,7 @@
         <v>20</v>
       </c>
       <c r="V30" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W30" t="n">
         <v>7.4</v>
@@ -5837,25 +5904,25 @@
         <v>94.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF30" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG30" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH30" t="n">
         <v>30</v>
       </c>
       <c r="AI30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ30" t="n">
         <v>29</v>
@@ -5867,16 +5934,16 @@
         <v>17</v>
       </c>
       <c r="AM30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN30" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AO30" t="n">
         <v>16</v>
       </c>
       <c r="AP30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ30" t="n">
         <v>27</v>
@@ -5885,13 +5952,13 @@
         <v>5</v>
       </c>
       <c r="AS30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT30" t="n">
         <v>13</v>
       </c>
       <c r="AU30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AV30" t="n">
         <v>25</v>
@@ -5900,22 +5967,22 @@
         <v>19</v>
       </c>
       <c r="AX30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY30" t="n">
         <v>12</v>
       </c>
       <c r="AZ30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA30" t="n">
         <v>24</v>
       </c>
       <c r="BB30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
@@ -5944,34 +6011,34 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31" t="n">
         <v>32</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.556</v>
       </c>
       <c r="H31" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I31" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J31" t="n">
-        <v>82.59999999999999</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.463</v>
+        <v>0.464</v>
       </c>
       <c r="L31" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M31" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N31" t="n">
         <v>0.358</v>
@@ -5983,16 +6050,16 @@
         <v>21.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.742</v>
+        <v>0.745</v>
       </c>
       <c r="R31" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S31" t="n">
-        <v>33.8</v>
+        <v>33.6</v>
       </c>
       <c r="T31" t="n">
-        <v>44.2</v>
+        <v>43.9</v>
       </c>
       <c r="U31" t="n">
         <v>23.8</v>
@@ -6004,28 +6071,28 @@
         <v>7.3</v>
       </c>
       <c r="X31" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z31" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA31" t="n">
         <v>19.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="AC31" t="n">
         <v>0.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF31" t="n">
         <v>13</v>
@@ -6034,13 +6101,13 @@
         <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AI31" t="n">
         <v>9</v>
       </c>
       <c r="AJ31" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AK31" t="n">
         <v>4</v>
@@ -6064,13 +6131,13 @@
         <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AS31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU31" t="n">
         <v>6</v>
@@ -6082,10 +6149,10 @@
         <v>22</v>
       </c>
       <c r="AX31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ31" t="n">
         <v>18</v>
@@ -6097,7 +6164,7 @@
         <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-27-2014-15</t>
+          <t>2015-03-27</t>
         </is>
       </c>
     </row>
